--- a/cases.xlsx
+++ b/cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9765" firstSheet="2" activeTab="5"/>
+    <workbookView windowWidth="24090" windowHeight="13665" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -574,6 +574,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -589,22 +604,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -617,9 +634,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -634,46 +666,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -688,7 +696,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -696,25 +704,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -727,19 +727,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,7 +817,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,25 +847,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,37 +883,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,49 +895,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,19 +907,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,17 +949,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -975,15 +1008,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1008,41 +1032,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1054,10 +1054,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -1066,133 +1066,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3413,8 +3413,8 @@
   <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -3489,8 +3489,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P55" sqref="P55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3505,7 +3505,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
